--- a/docs/source/recursos/milpa_apic/tabla_api_exclusion.xlsx
+++ b/docs/source/recursos/milpa_apic/tabla_api_exclusion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LANCIS\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\milpa_apic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6907543E-9558-46C9-9316-2965BC644E42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42951049-004A-449B-8FFA-126A0FA7185D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C74C4125-4B3A-4D8B-8F3A-4F072A0C490F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Acuícola</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Categoría</t>
+  </si>
+  <si>
+    <t>ND</t>
   </si>
 </sst>
 </file>
@@ -410,10 +413,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686F870F-F023-4867-BE7D-2825E1499922}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection sqref="A1:B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,6 +457,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
